--- a/PCAcombined/PCAcombined_predicted_factors_matrix_6.xlsx
+++ b/PCAcombined/PCAcombined_predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>0.1094924665488407</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.06898774163955594</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02901913674228383</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.009304636118745352</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.04548614363008453</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.07938084987555111</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1110424221974784</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.1406269361000812</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.1683342433901027</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.1943733818488245</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2189434165245143</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2422239685208356</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2643716272626153</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2855197677333015</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.3057801923901605</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.3252456178717242</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.3439924214619702</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.362083317015948</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.3795697905863589</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.3964942241159553</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.4128916930291301</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.428791455063958</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.444218163030392</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.4591928397969228</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.4737336538509512</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.487856530872751</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.501575632523045</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.5149037290241396</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.5278524876478031</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.5404326951785574</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.5526544289089236</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.5645271877600277</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.5760599926741495</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.5872614634378636</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.5981398775004791</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.6087032150878673</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.6189591939173268</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.6289152960430104</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.6385787887595743</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.6479567410276896</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.6570560365289582</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.6658833841858248</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.6744453267751688</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.180067312670171</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.1463492975972495</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1202052944566041</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1002914363557426</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.08541331644847819</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.07455400503365434</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.06686788056633702</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.06166326696543355</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.058381696910929</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.05657709697830039</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.05589644969466932</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.05606263427475443</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.05685967213307438</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.05812033247628526</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.059715907534623</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.06154789967888483</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.06354134357014772</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.06563949553133912</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.06779964633191651</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.06998984413111524</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.07218634629684663</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0743716492685947</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.07653297305812444</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.07866110077648182</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.08074949367318633</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.08279361880706099</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.08479044001703233</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.08673803375655501</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.08863530002393304</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.09048174545666114</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.09227732100723007</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.09402230077653032</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.09571719179524567</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.09736266701534843</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.09895951566587394</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.100508606569516</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1020108611121373</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.1034672333865531</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.1048786956577369</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.1062462277674543</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1075708094497282</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1088534147930696</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.1100950082830045</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>-0.2368763843980289</v>
       </c>
+      <c r="F4" t="n">
+        <v>-0.162425349363313</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1109590987763569</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.07538172146827692</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.05078585724025721</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.03378791833694206</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.02205354533839182</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.01396936207734751</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.008418098339331777</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.004624708373150752</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.002050845617429384</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.0003222629235639495</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.000821303004528401</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.001560831450985624</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.00202210463795523</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.002292460811735445</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.002432463112511594</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.002484034622380077</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.002476132282626504</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.002428704288272422</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.002355449184697657</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.002265738058042325</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.002165952203178323</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.002060412688184135</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.001952025190762731</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.001842726390881576</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.001733792243758045</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.001626050279334574</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.001520025344894265</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.001416039296241176</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.00131427890839189</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.001214841919393414</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.001117768078902966</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.001023059952953214</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0009306967611297269</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0008406434979583242</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0007528568808207985</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0006672891763724901</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0005838906198280625</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.000502610909566962</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0004234001009923878</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0003462091155660354</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0002709900077852241</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.1327569691979744</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.09227560657584474</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.06354310019137888</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.04319288424332237</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02881820572342167</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01868340963353889</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01153907521778319</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.006490911473560358</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.002903195972998636</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0003271718940589139</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.001551777243693694</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.002952761593187915</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.004027381894357508</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.004879843629335601</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.005581294676375587</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.006179972396365851</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.006708337479771489</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.007188057965965158</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.007633470131802201</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.008053967144951765</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.008455637425582904</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.008842381035861133</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.009216665024572171</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.009580030502081643</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.009933430040166518</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.01027744987155864</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.01061245443759684</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.01093867901667666</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.0112562879607626</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.01156541039884872</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.01186616137160028</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.01215865370081832</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01244300409094236</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.01271933574181994</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.0129877789369326</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.01324847053076759</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.0135015529042904</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.01374717272758469</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.01398547972205955</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.01421662552290704</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.01444076268670382</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.01465804385631542</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.01486862107723133</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.05958445654051257</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.04137913634181532</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.02873994953527772</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.01983452863235031</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.01352202348026377</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.009037190201084792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.005849850881313109</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.003587210839436229</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.001985111107845333</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.0008555044025367171</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-6.41159818697461e-05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.000485134532603273</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0008610963589578114</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.001113151061111598</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.001276735225845667</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.00137728252345015</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.001433044767630645</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.001457114587603876</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.001458877623953403</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.001445056083689425</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.001420459037928881</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.001388521988651204</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.001351694874489902</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.001311721016325053</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.001269837569622812</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.00122691948628075</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.001183582831766472</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.001140258871368098</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.001097247146457988</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.001054753460342128</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.00101291703425628</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0009718298982191389</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0009315507196819211</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0008921146521735296</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0008535403393111161</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0008158348880826147</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0007789973942605578</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0007430214368959506</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0007078968397816023</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0006736109124783568</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0006401493223985976</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0006074967057896887</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0005756370942442731</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -550,6 +1306,132 @@
       </c>
       <c r="E7" t="n">
         <v>0.04163596889433688</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02857005304133204</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01953485889975233</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01331834885279149</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.009059860407158794</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.006158720238695898</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.004197206914709903</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.002885005627140191</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.002020437475672437</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001463521654064472</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.001117235358190059</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0009144553293826559</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0008088503051138592</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.000768528162416177</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.000771606653881196</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0008031282014549532</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0008529137564465535</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0009140723981348206</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0009819683877668641</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.001053506937431381</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.001126641674069472</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.001200036018033244</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.001272831182345833</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.001344487844339743</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.001414678577310756</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.001483215142431212</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.00154999963385767</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.001614991877788836</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.001678187854910306</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.001739605558461816</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.001799275836453979</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.001857236550396788</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.00191352892172816</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.00196819530625869</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.002021277888797649</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.002072817961089977</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.002122855561727908</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.002171429334217378</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.002218576511088415</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.002264332966079769</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.002308733298813663</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.002351810930794987</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.002393598200792656</v>
       </c>
     </row>
   </sheetData>
